--- a/Documentation/KPMG Case Data.xlsx
+++ b/Documentation/KPMG Case Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54ec0d5dc1cc4d68/Documents/Coding Projects/2025-KPMG-Data-Challenge/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{11C1FA54-C8B2-4D0E-BD0D-55E4FB3CB2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0B90598-5193-4920-8E23-21B9B457F46E}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{11C1FA54-C8B2-4D0E-BD0D-55E4FB3CB2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BEA2026-2BDF-4A43-B291-3B879ED9D76A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1552,8 +1552,8 @@
   <dimension ref="A1:P897"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A699" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q900" sqref="Q900"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H562" sqref="H562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,12 +1565,12 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
     <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
     <col min="14" max="14" width="20.5703125" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
